--- a/symbols_info.xlsx
+++ b/symbols_info.xlsx
@@ -554,16 +554,16 @@
       </c>
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>25123.74</v>
+        <v>25105.52</v>
       </c>
       <c r="D2" t="n">
-        <v>11.34000000000015</v>
+        <v>11.10000000000218</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.000000000015</v>
+        <v>1110.000000000218</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11</v>
+        <v>11.1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>25112.4</v>
+        <v>25094.42</v>
       </c>
       <c r="S2" s="1" t="inlineStr"/>
     </row>
@@ -611,16 +611,16 @@
       </c>
       <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1561.67</v>
+        <v>1561.57</v>
       </c>
       <c r="D3" t="n">
-        <v>1.310000000000173</v>
+        <v>1.3599999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0000000000173</v>
+        <v>135.99999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>1.31</v>
+        <v>13.6</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15603.6</v>
+        <v>15602.1</v>
       </c>
       <c r="S3" s="1" t="inlineStr"/>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>59.57</v>
+        <v>59.5</v>
       </c>
       <c r="D4" t="n">
         <v>0.3999999999999986</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5917</v>
+        <v>5910</v>
       </c>
       <c r="S4" s="1" t="inlineStr"/>
     </row>
@@ -725,16 +725,16 @@
       </c>
       <c r="B5" s="1" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.47243</v>
+        <v>0.47272</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003000000000000225</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="E5" t="n">
-        <v>30.00000000000225</v>
+        <v>29.9999999999967</v>
       </c>
       <c r="F5" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
         <v>50000</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23606.5</v>
+        <v>23621</v>
       </c>
       <c r="S5" s="1" t="inlineStr"/>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>184.65</v>
+        <v>184.47</v>
       </c>
       <c r="D6" t="n">
         <v>2.800000000000011</v>
@@ -791,7 +791,7 @@
         <v>280.0000000000011</v>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>28</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1818.5</v>
+        <v>1816.7</v>
       </c>
       <c r="S6" s="1" t="inlineStr"/>
     </row>
@@ -839,16 +839,16 @@
       </c>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>52.7</v>
+        <v>52.98</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6500000000000057</v>
+        <v>1.159999999999997</v>
       </c>
       <c r="E7" t="n">
-        <v>65.00000000000057</v>
+        <v>115.9999999999997</v>
       </c>
       <c r="F7" t="n">
-        <v>16.25</v>
+        <v>58</v>
       </c>
       <c r="G7" t="n">
         <v>50</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2602.5</v>
+        <v>2591</v>
       </c>
       <c r="S7" s="1" t="inlineStr"/>
     </row>
@@ -896,16 +896,16 @@
       </c>
       <c r="B8" s="1" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.244</v>
+        <v>0.2432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002599999999999991</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="E8" t="n">
-        <v>25.99999999999991</v>
+        <v>20.99999999999991</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
         <v>10000</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="S8" s="1" t="inlineStr"/>
     </row>
@@ -953,16 +953,16 @@
       </c>
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.092</v>
+        <v>0.0921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006000000000000005</v>
+        <v>0.006199999999999997</v>
       </c>
       <c r="E9" t="n">
-        <v>60.00000000000006</v>
+        <v>61.99999999999997</v>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>15.5</v>
       </c>
       <c r="G9" t="n">
         <v>2500</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>215</v>
+        <v>214.75</v>
       </c>
       <c r="S9" s="1" t="inlineStr"/>
     </row>
@@ -1010,16 +1010,16 @@
       </c>
       <c r="B10" s="1" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>6.461</v>
+        <v>6.465</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08900000000000041</v>
+        <v>0.08899999999999952</v>
       </c>
       <c r="E10" t="n">
-        <v>89.00000000000041</v>
+        <v>88.99999999999952</v>
       </c>
       <c r="F10" t="n">
-        <v>5.56</v>
+        <v>22.25</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="S10" s="1" t="inlineStr"/>
     </row>
@@ -1067,16 +1067,16 @@
       </c>
       <c r="B11" s="1" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>9.375</v>
+        <v>9.372999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2119999999999997</v>
+        <v>0.1989999999999998</v>
       </c>
       <c r="E11" t="n">
-        <v>211.9999999999997</v>
+        <v>198.9999999999998</v>
       </c>
       <c r="F11" t="n">
-        <v>2.12</v>
+        <v>19.9</v>
       </c>
       <c r="G11" t="n">
         <v>100</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>916.3000000000001</v>
+        <v>917.4</v>
       </c>
       <c r="S11" s="1" t="inlineStr"/>
     </row>
@@ -1124,16 +1124,16 @@
       </c>
       <c r="B12" s="1" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="E12" t="n">
-        <v>33.00000000000001</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>8.25</v>
+        <v>14.5</v>
       </c>
       <c r="G12" t="n">
         <v>50</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>201.5</v>
+        <v>202.5</v>
       </c>
       <c r="S12" s="1" t="inlineStr"/>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B13" s="1" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>207</v>
+        <v>206.94</v>
       </c>
       <c r="D13" t="n">
         <v>1.189999999999998</v>
@@ -1190,7 +1190,7 @@
         <v>118.9999999999998</v>
       </c>
       <c r="F13" t="n">
-        <v>1.19</v>
+        <v>11.9</v>
       </c>
       <c r="G13" t="n">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2058.1</v>
+        <v>2057.5</v>
       </c>
       <c r="S13" s="1" t="inlineStr"/>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B15" s="1" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>0.06044</v>
+        <v>0.06035</v>
       </c>
       <c r="D15" t="n">
         <v>0.0003900000000000015</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6005</v>
+        <v>5996</v>
       </c>
       <c r="S15" s="1" t="inlineStr"/>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B16" s="1" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>4.04</v>
+        <v>4.032</v>
       </c>
       <c r="D16" t="n">
         <v>0.05100000000000016</v>
@@ -1361,7 +1361,7 @@
         <v>51.00000000000016</v>
       </c>
       <c r="F16" t="n">
-        <v>3.19</v>
+        <v>12.75</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>997.25</v>
+        <v>995.25</v>
       </c>
       <c r="S16" s="1" t="inlineStr"/>
     </row>
@@ -1418,7 +1418,7 @@
         <v>146.0000000000003</v>
       </c>
       <c r="F17" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="G17" t="n">
         <v>100</v>
@@ -1475,7 +1475,7 @@
         <v>82.00000000000013</v>
       </c>
       <c r="F18" t="n">
-        <v>20.5</v>
+        <v>41</v>
       </c>
       <c r="G18" t="n">
         <v>5000</v>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B20" s="1" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>3.081</v>
+        <v>3.087</v>
       </c>
       <c r="D20" t="n">
         <v>0.161</v>
@@ -1589,7 +1589,7 @@
         <v>161</v>
       </c>
       <c r="F20" t="n">
-        <v>1.61</v>
+        <v>16.1</v>
       </c>
       <c r="G20" t="n">
         <v>100</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>292</v>
+        <v>292.6</v>
       </c>
       <c r="S20" s="1" t="inlineStr"/>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B21" s="1" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>0.1656</v>
+        <v>0.1659</v>
       </c>
       <c r="D21" t="n">
         <v>0.002599999999999991</v>
@@ -1646,7 +1646,7 @@
         <v>25.99999999999991</v>
       </c>
       <c r="F21" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
         <v>5000</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>815</v>
+        <v>816.5</v>
       </c>
       <c r="S21" s="1" t="inlineStr"/>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B22" s="1" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>5.9</v>
+        <v>5.896</v>
       </c>
       <c r="D22" t="n">
         <v>0.07500000000000018</v>
@@ -1703,7 +1703,7 @@
         <v>75.00000000000017</v>
       </c>
       <c r="F22" t="n">
-        <v>4.69</v>
+        <v>18.75</v>
       </c>
       <c r="G22" t="n">
         <v>250</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1456.25</v>
+        <v>1455.25</v>
       </c>
       <c r="S22" s="1" t="inlineStr"/>
     </row>
@@ -1751,16 +1751,16 @@
       </c>
       <c r="B23" s="1" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>0.1835</v>
+        <v>0.1834</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01289999999999999</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>128.9999999999999</v>
+        <v>130.0000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>8.06</v>
+        <v>32.5</v>
       </c>
       <c r="G23" t="n">
         <v>2500</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>426.5</v>
+        <v>426</v>
       </c>
       <c r="S23" s="1" t="inlineStr"/>
     </row>
@@ -1808,16 +1808,16 @@
       </c>
       <c r="B24" s="1" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>0.2785</v>
+        <v>0.2782</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01250000000000001</v>
+        <v>0.01240000000000002</v>
       </c>
       <c r="E24" t="n">
-        <v>125.0000000000001</v>
+        <v>124.0000000000002</v>
       </c>
       <c r="F24" t="n">
-        <v>1.25</v>
+        <v>12.4</v>
       </c>
       <c r="G24" t="n">
         <v>1000</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>266</v>
+        <v>265.8</v>
       </c>
       <c r="S24" s="1" t="inlineStr"/>
     </row>
@@ -1865,16 +1865,16 @@
       </c>
       <c r="B25" s="1" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>0.5091</v>
+        <v>0.5089</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01379999999999998</v>
+        <v>0.01390000000000002</v>
       </c>
       <c r="E25" t="n">
-        <v>137.9999999999998</v>
+        <v>139.0000000000002</v>
       </c>
       <c r="F25" t="n">
-        <v>8.619999999999999</v>
+        <v>34.75</v>
       </c>
       <c r="G25" t="n">
         <v>2500</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1238.25</v>
+        <v>1237.5</v>
       </c>
       <c r="S25" s="1" t="inlineStr"/>
     </row>
@@ -1922,16 +1922,16 @@
       </c>
       <c r="B26" s="1" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>1.162</v>
+        <v>1.165</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09899999999999998</v>
+        <v>0.103</v>
       </c>
       <c r="E26" t="n">
-        <v>98.99999999999997</v>
+        <v>103</v>
       </c>
       <c r="F26" t="n">
-        <v>6.19</v>
+        <v>25.75</v>
       </c>
       <c r="G26" t="n">
         <v>250</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>265.75</v>
+        <v>265.5</v>
       </c>
       <c r="S26" s="1" t="inlineStr"/>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B27" s="1" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>17.97</v>
+        <v>17.98</v>
       </c>
       <c r="D27" t="n">
         <v>0.3099999999999987</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="S27" s="1" t="inlineStr"/>
     </row>
@@ -2036,16 +2036,16 @@
       </c>
       <c r="B28" s="1" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>4.131</v>
+        <v>4.138</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03900000000000059</v>
+        <v>0.0389999999999997</v>
       </c>
       <c r="E28" t="n">
-        <v>39.00000000000059</v>
+        <v>38.9999999999997</v>
       </c>
       <c r="F28" t="n">
-        <v>2.44</v>
+        <v>9.75</v>
       </c>
       <c r="G28" t="n">
         <v>250</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1023</v>
+        <v>1024.75</v>
       </c>
       <c r="S28" s="1" t="inlineStr"/>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B29" s="1" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>24.6</v>
+        <v>24.64</v>
       </c>
       <c r="D29" t="n">
         <v>0.2100000000000009</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="S29" s="1" t="inlineStr"/>
     </row>
@@ -2150,16 +2150,16 @@
       </c>
       <c r="B30" s="1" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>14.71</v>
+        <v>14.72</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06200000000000117</v>
+        <v>0.06300000000000061</v>
       </c>
       <c r="E30" t="n">
-        <v>62.00000000000117</v>
+        <v>63.00000000000061</v>
       </c>
       <c r="F30" t="n">
-        <v>3.88</v>
+        <v>15.75</v>
       </c>
       <c r="G30" t="n">
         <v>250</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3662</v>
+        <v>3664.25</v>
       </c>
       <c r="S30" s="1" t="inlineStr"/>
     </row>
@@ -2207,13 +2207,13 @@
       </c>
       <c r="B31" s="1" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>0.07743999999999999</v>
+        <v>0.07756</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0002699999999999925</v>
+        <v>0.0002700000000000063</v>
       </c>
       <c r="E31" t="n">
-        <v>26.99999999999925</v>
+        <v>27.00000000000064</v>
       </c>
       <c r="F31" t="n">
         <v>27</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7717</v>
+        <v>7729</v>
       </c>
       <c r="S31" s="1" t="inlineStr"/>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B33" s="1" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>7192.5</v>
+        <v>7193.5</v>
       </c>
       <c r="D33" t="n">
         <v>3.199999999999818</v>
@@ -2274,7 +2274,7 @@
         <v>31.99999999999818</v>
       </c>
       <c r="F33" t="n">
-        <v>13.23</v>
+        <v>20.58</v>
       </c>
       <c r="G33" t="n">
         <v>10</v>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.64315</v>
+        <v>0.64327</v>
       </c>
       <c r="O33" s="1" t="inlineStr"/>
       <c r="P33" t="n">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>46237.98295</v>
+        <v>46253.04281</v>
       </c>
       <c r="S33" s="1" t="inlineStr"/>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="B34" s="1" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>7504.6</v>
+        <v>7509.6</v>
       </c>
       <c r="D34" t="n">
         <v>3.200000000000728</v>
@@ -2331,7 +2331,7 @@
         <v>32.00000000000728</v>
       </c>
       <c r="F34" t="n">
-        <v>50.21</v>
+        <v>40.09</v>
       </c>
       <c r="G34" t="n">
         <v>10</v>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1.25273</v>
+        <v>1.2527</v>
       </c>
       <c r="O34" s="1" t="inlineStr"/>
       <c r="P34" t="n">
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>93972.28822</v>
+        <v>94032.6728</v>
       </c>
       <c r="S34" s="1" t="inlineStr"/>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B35" s="1" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>7282.1</v>
+        <v>7289.6</v>
       </c>
       <c r="D35" t="n">
         <v>3.200000000000728</v>
@@ -2388,7 +2388,7 @@
         <v>32.00000000000728</v>
       </c>
       <c r="F35" t="n">
-        <v>36.93</v>
+        <v>34.38</v>
       </c>
       <c r="G35" t="n">
         <v>10</v>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1.07439</v>
+        <v>1.07428</v>
       </c>
       <c r="O35" s="1" t="inlineStr"/>
       <c r="P35" t="n">
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>78203.77370999999</v>
+        <v>78276.33791999999</v>
       </c>
       <c r="S35" s="1" t="inlineStr"/>
     </row>
@@ -2445,7 +2445,7 @@
         <v>261.0000000000036</v>
       </c>
       <c r="F36" t="n">
-        <v>301.25</v>
+        <v>280.39</v>
       </c>
       <c r="G36" t="n">
         <v>10</v>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1.07439</v>
+        <v>1.07428</v>
       </c>
       <c r="O36" s="1" t="inlineStr"/>
       <c r="P36" t="n">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>101230.10019</v>
+        <v>101219.73588</v>
       </c>
       <c r="S36" s="1" t="inlineStr"/>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>4258</v>
+        <v>4262</v>
       </c>
       <c r="D37" t="n">
         <v>3.399999999999636</v>
@@ -2502,7 +2502,7 @@
         <v>33.99999999999636</v>
       </c>
       <c r="F37" t="n">
-        <v>39.24</v>
+        <v>36.53</v>
       </c>
       <c r="G37" t="n">
         <v>10</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1.07439</v>
+        <v>1.07428</v>
       </c>
       <c r="O37" s="1" t="inlineStr"/>
       <c r="P37" t="n">
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45710.99694</v>
+        <v>45749.28808</v>
       </c>
       <c r="S37" s="1" t="inlineStr"/>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>15386.5</v>
+        <v>15386.3</v>
       </c>
       <c r="D38" t="n">
         <v>3</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>153835</v>
+        <v>153833</v>
       </c>
       <c r="S38" s="1" t="inlineStr"/>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>34625.1</v>
+        <v>34633.1</v>
       </c>
       <c r="D39" t="n">
         <v>8.099999999998545</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>346170</v>
+        <v>346250</v>
       </c>
       <c r="S39" s="1" t="inlineStr"/>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>4478.4</v>
+        <v>4479.7</v>
       </c>
       <c r="D40" t="n">
         <v>2.899999999999636</v>
@@ -2673,7 +2673,7 @@
         <v>28.99999999999636</v>
       </c>
       <c r="F40" t="n">
-        <v>2.9</v>
+        <v>29</v>
       </c>
       <c r="G40" t="n">
         <v>10</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44755</v>
+        <v>44768</v>
       </c>
       <c r="S40" s="1" t="inlineStr"/>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>15805.6</v>
+        <v>15816.6</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -2730,7 +2730,7 @@
         <v>20</v>
       </c>
       <c r="F41" t="n">
-        <v>23.08</v>
+        <v>21.49</v>
       </c>
       <c r="G41" t="n">
         <v>10</v>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>1.07439</v>
+        <v>1.07428</v>
       </c>
       <c r="O41" s="1" t="inlineStr"/>
       <c r="P41" t="n">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>169792.29804</v>
+        <v>169893.08488</v>
       </c>
       <c r="S41" s="1" t="inlineStr"/>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>90.3</v>
+        <v>90.55</v>
       </c>
       <c r="D43" t="n">
         <v>0.07999999999999829</v>
@@ -2788,7 +2788,7 @@
         <v>7.999999999999829</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>1000</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90220</v>
+        <v>90470</v>
       </c>
       <c r="S43" s="1" t="inlineStr"/>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>86.76000000000001</v>
+        <v>87.03</v>
       </c>
       <c r="D44" t="n">
         <v>0.07000000000000739</v>
@@ -2845,7 +2845,7 @@
         <v>7.000000000000739</v>
       </c>
       <c r="F44" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G44" t="n">
         <v>1000</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>86690</v>
+        <v>86960</v>
       </c>
       <c r="S44" s="1" t="inlineStr"/>
     </row>
@@ -2902,7 +2902,7 @@
         <v>10.00000000000023</v>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
         <v>10000</v>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>23.022</v>
+        <v>23.028</v>
       </c>
       <c r="D47" t="n">
         <v>0.01999999999999957</v>
@@ -2960,7 +2960,7 @@
         <v>19.99999999999957</v>
       </c>
       <c r="F47" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
         <v>5000</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>115010</v>
+        <v>115040</v>
       </c>
       <c r="S47" s="1" t="inlineStr"/>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1923.55</v>
+        <v>1923.35</v>
       </c>
       <c r="D48" t="n">
         <v>0.3099999999999454</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>192324</v>
+        <v>192304</v>
       </c>
       <c r="S48" s="1" t="inlineStr"/>
     </row>
@@ -3065,16 +3065,16 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>1790.73</v>
+        <v>1790.69</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8800000000001091</v>
+        <v>0.8099999999999454</v>
       </c>
       <c r="E49" t="n">
-        <v>88.00000000001091</v>
+        <v>80.99999999999454</v>
       </c>
       <c r="F49" t="n">
-        <v>101.57</v>
+        <v>87.02</v>
       </c>
       <c r="G49" t="n">
         <v>100</v>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>1.07439</v>
+        <v>1.07428</v>
       </c>
       <c r="O49" s="1" t="inlineStr"/>
       <c r="P49" t="n">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>192299.69415</v>
+        <v>192283.22864</v>
       </c>
       <c r="S49" s="1" t="inlineStr"/>
     </row>

--- a/symbols_info.xlsx
+++ b/symbols_info.xlsx
@@ -554,16 +554,16 @@
       </c>
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>25105.52</v>
+        <v>25115.88</v>
       </c>
       <c r="D2" t="n">
-        <v>11.10000000000218</v>
+        <v>12.96000000000276</v>
       </c>
       <c r="E2" t="n">
-        <v>1110.000000000218</v>
+        <v>1296.000000000276</v>
       </c>
       <c r="F2" t="n">
-        <v>11.1</v>
+        <v>12.96</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>25094.42</v>
+        <v>25102.92</v>
       </c>
       <c r="S2" s="1" t="inlineStr"/>
     </row>
@@ -611,16 +611,16 @@
       </c>
       <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1561.57</v>
+        <v>1563.42</v>
       </c>
       <c r="D3" t="n">
-        <v>1.3599999999999</v>
+        <v>1.310000000000173</v>
       </c>
       <c r="E3" t="n">
-        <v>135.99999999999</v>
+        <v>131.0000000000173</v>
       </c>
       <c r="F3" t="n">
-        <v>13.6</v>
+        <v>13.1</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15602.1</v>
+        <v>15621.1</v>
       </c>
       <c r="S3" s="1" t="inlineStr"/>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>59.5</v>
+        <v>59.6</v>
       </c>
       <c r="D4" t="n">
         <v>0.3999999999999986</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5910</v>
+        <v>5920</v>
       </c>
       <c r="S4" s="1" t="inlineStr"/>
     </row>
@@ -725,13 +725,13 @@
       </c>
       <c r="B5" s="1" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.47272</v>
+        <v>0.47276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.0003000000000000225</v>
       </c>
       <c r="E5" t="n">
-        <v>29.9999999999967</v>
+        <v>30.00000000000225</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23621</v>
+        <v>23623</v>
       </c>
       <c r="S5" s="1" t="inlineStr"/>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>184.47</v>
+        <v>184.37</v>
       </c>
       <c r="D6" t="n">
         <v>2.800000000000011</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1816.7</v>
+        <v>1815.7</v>
       </c>
       <c r="S6" s="1" t="inlineStr"/>
     </row>
@@ -839,16 +839,16 @@
       </c>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>52.98</v>
+        <v>52.82</v>
       </c>
       <c r="D7" t="n">
-        <v>1.159999999999997</v>
+        <v>0.6499999999999986</v>
       </c>
       <c r="E7" t="n">
-        <v>115.9999999999997</v>
+        <v>64.99999999999986</v>
       </c>
       <c r="F7" t="n">
-        <v>58</v>
+        <v>32.5</v>
       </c>
       <c r="G7" t="n">
         <v>50</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2591</v>
+        <v>2608.5</v>
       </c>
       <c r="S7" s="1" t="inlineStr"/>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B8" s="1" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.2432</v>
+        <v>0.2437</v>
       </c>
       <c r="D8" t="n">
         <v>0.002099999999999991</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2411</v>
+        <v>2416</v>
       </c>
       <c r="S8" s="1" t="inlineStr"/>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.0921</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>0.006199999999999997</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>214.75</v>
+        <v>215.25</v>
       </c>
       <c r="S9" s="1" t="inlineStr"/>
     </row>
@@ -1010,16 +1010,16 @@
       </c>
       <c r="B10" s="1" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>6.465</v>
+        <v>6.478</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08899999999999952</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="E10" t="n">
-        <v>88.99999999999952</v>
+        <v>89.99999999999986</v>
       </c>
       <c r="F10" t="n">
-        <v>22.25</v>
+        <v>22.5</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="S10" s="1" t="inlineStr"/>
     </row>
@@ -1067,16 +1067,16 @@
       </c>
       <c r="B11" s="1" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>9.372999999999999</v>
+        <v>9.394</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1989999999999998</v>
+        <v>0.2029999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>198.9999999999998</v>
+        <v>202.9999999999994</v>
       </c>
       <c r="F11" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="G11" t="n">
         <v>100</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>917.4</v>
+        <v>919.1</v>
       </c>
       <c r="S11" s="1" t="inlineStr"/>
     </row>
@@ -1124,16 +1124,16 @@
       </c>
       <c r="B12" s="1" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="D12" t="n">
-        <v>0.29</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>33.00000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="G12" t="n">
         <v>50</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>202.5</v>
+        <v>202</v>
       </c>
       <c r="S12" s="1" t="inlineStr"/>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B13" s="1" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>206.94</v>
+        <v>207.15</v>
       </c>
       <c r="D13" t="n">
         <v>1.189999999999998</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2057.5</v>
+        <v>2059.6</v>
       </c>
       <c r="S13" s="1" t="inlineStr"/>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B14" s="1" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>25.19</v>
+        <v>25.26</v>
       </c>
       <c r="D14" t="n">
         <v>0.2000000000000028</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2499</v>
+        <v>2506</v>
       </c>
       <c r="S14" s="1" t="inlineStr"/>
     </row>
@@ -1295,16 +1295,16 @@
       </c>
       <c r="B15" s="1" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>0.06035</v>
+        <v>0.06044</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0003900000000000015</v>
+        <v>0.0003999999999999976</v>
       </c>
       <c r="E15" t="n">
-        <v>39.00000000000014</v>
+        <v>39.99999999999976</v>
       </c>
       <c r="F15" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
         <v>100000</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5996</v>
+        <v>6004</v>
       </c>
       <c r="S15" s="1" t="inlineStr"/>
     </row>
@@ -1352,16 +1352,16 @@
       </c>
       <c r="B16" s="1" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>4.032</v>
+        <v>4.041</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05100000000000016</v>
+        <v>0.05200000000000049</v>
       </c>
       <c r="E16" t="n">
-        <v>51.00000000000016</v>
+        <v>52.00000000000049</v>
       </c>
       <c r="F16" t="n">
-        <v>12.75</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>995.25</v>
+        <v>997.25</v>
       </c>
       <c r="S16" s="1" t="inlineStr"/>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B17" s="1" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>3.111</v>
+        <v>3.116</v>
       </c>
       <c r="D17" t="n">
         <v>0.1460000000000004</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>296.5</v>
+        <v>297</v>
       </c>
       <c r="S17" s="1" t="inlineStr"/>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B18" s="1" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>0.1917</v>
+        <v>0.192</v>
       </c>
       <c r="D18" t="n">
         <v>0.008200000000000013</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>917.5</v>
+        <v>919</v>
       </c>
       <c r="S18" s="1" t="inlineStr"/>
     </row>
@@ -1523,13 +1523,13 @@
       </c>
       <c r="B19" s="1" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>0.0809</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003199999999999995</v>
+        <v>0.003200000000000008</v>
       </c>
       <c r="E19" t="n">
-        <v>31.99999999999995</v>
+        <v>32.00000000000009</v>
       </c>
       <c r="F19" t="n">
         <v>32</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="S19" s="1" t="inlineStr"/>
     </row>
@@ -1580,16 +1580,16 @@
       </c>
       <c r="B20" s="1" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>3.087</v>
+        <v>3.091</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161</v>
+        <v>0.1660000000000004</v>
       </c>
       <c r="E20" t="n">
-        <v>161</v>
+        <v>166.0000000000004</v>
       </c>
       <c r="F20" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="G20" t="n">
         <v>100</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>292.6</v>
+        <v>292.5</v>
       </c>
       <c r="S20" s="1" t="inlineStr"/>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B21" s="1" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>0.1659</v>
+        <v>0.1664</v>
       </c>
       <c r="D21" t="n">
         <v>0.002599999999999991</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>816.5</v>
+        <v>819</v>
       </c>
       <c r="S21" s="1" t="inlineStr"/>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B22" s="1" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>5.896</v>
+        <v>5.907</v>
       </c>
       <c r="D22" t="n">
         <v>0.07500000000000018</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1455.25</v>
+        <v>1458</v>
       </c>
       <c r="S22" s="1" t="inlineStr"/>
     </row>
@@ -1751,16 +1751,16 @@
       </c>
       <c r="B23" s="1" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>0.1834</v>
+        <v>0.1837</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01300000000000001</v>
+        <v>0.01289999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>130.0000000000001</v>
+        <v>128.9999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>32.5</v>
+        <v>32.25</v>
       </c>
       <c r="G23" t="n">
         <v>2500</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S23" s="1" t="inlineStr"/>
     </row>
@@ -1808,16 +1808,16 @@
       </c>
       <c r="B24" s="1" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>0.2782</v>
+        <v>0.2788</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01240000000000002</v>
+        <v>0.01250000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>124.0000000000002</v>
+        <v>125.0000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="G24" t="n">
         <v>1000</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>265.8</v>
+        <v>266.3</v>
       </c>
       <c r="S24" s="1" t="inlineStr"/>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B25" s="1" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>0.5089</v>
+        <v>0.5097</v>
       </c>
       <c r="D25" t="n">
         <v>0.01390000000000002</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1237.5</v>
+        <v>1239.5</v>
       </c>
       <c r="S25" s="1" t="inlineStr"/>
     </row>
@@ -1925,13 +1925,13 @@
         <v>1.165</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="E26" t="n">
-        <v>103</v>
+        <v>98.99999999999997</v>
       </c>
       <c r="F26" t="n">
-        <v>25.75</v>
+        <v>24.75</v>
       </c>
       <c r="G26" t="n">
         <v>250</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>265.5</v>
+        <v>266.5</v>
       </c>
       <c r="S26" s="1" t="inlineStr"/>
     </row>
@@ -1979,16 +1979,16 @@
       </c>
       <c r="B27" s="1" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>17.98</v>
+        <v>18.02</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3099999999999987</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="E27" t="n">
-        <v>30.99999999999987</v>
+        <v>32.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="S27" s="1" t="inlineStr"/>
     </row>
@@ -2036,13 +2036,13 @@
       </c>
       <c r="B28" s="1" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>4.138</v>
+        <v>4.142</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0389999999999997</v>
+        <v>0.03900000000000059</v>
       </c>
       <c r="E28" t="n">
-        <v>38.9999999999997</v>
+        <v>39.00000000000059</v>
       </c>
       <c r="F28" t="n">
         <v>9.75</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1024.75</v>
+        <v>1025.75</v>
       </c>
       <c r="S28" s="1" t="inlineStr"/>
     </row>
@@ -2093,16 +2093,16 @@
       </c>
       <c r="B29" s="1" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>24.64</v>
+        <v>24.67</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2100000000000009</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="E29" t="n">
-        <v>21.00000000000009</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2443</v>
+        <v>2447</v>
       </c>
       <c r="S29" s="1" t="inlineStr"/>
     </row>
@@ -2150,16 +2150,16 @@
       </c>
       <c r="B30" s="1" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>14.72</v>
+        <v>14.744</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06300000000000061</v>
+        <v>0.05899999999999928</v>
       </c>
       <c r="E30" t="n">
-        <v>63.00000000000061</v>
+        <v>58.99999999999928</v>
       </c>
       <c r="F30" t="n">
-        <v>15.75</v>
+        <v>14.75</v>
       </c>
       <c r="G30" t="n">
         <v>250</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3664.25</v>
+        <v>3671.25</v>
       </c>
       <c r="S30" s="1" t="inlineStr"/>
     </row>
@@ -2210,13 +2210,13 @@
         <v>0.07756</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0002700000000000063</v>
+        <v>0.0002400000000000041</v>
       </c>
       <c r="E31" t="n">
-        <v>27.00000000000064</v>
+        <v>24.00000000000041</v>
       </c>
       <c r="F31" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
         <v>100000</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7729</v>
+        <v>7732</v>
       </c>
       <c r="S31" s="1" t="inlineStr"/>
     </row>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>46253.04281</v>
+        <v>46253.04</v>
       </c>
       <c r="S33" s="1" t="inlineStr"/>
     </row>
@@ -2322,13 +2322,13 @@
       </c>
       <c r="B34" s="1" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>7509.6</v>
+        <v>7508.8</v>
       </c>
       <c r="D34" t="n">
-        <v>3.200000000000728</v>
+        <v>3.199999999999818</v>
       </c>
       <c r="E34" t="n">
-        <v>32.00000000000728</v>
+        <v>31.99999999999818</v>
       </c>
       <c r="F34" t="n">
         <v>40.09</v>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1.2527</v>
+        <v>1.25267</v>
       </c>
       <c r="O34" s="1" t="inlineStr"/>
       <c r="P34" t="n">
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>94032.6728</v>
+        <v>94020.39999999999</v>
       </c>
       <c r="S34" s="1" t="inlineStr"/>
     </row>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1.07428</v>
+        <v>1.07431</v>
       </c>
       <c r="O35" s="1" t="inlineStr"/>
       <c r="P35" t="n">
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>78276.33791999999</v>
+        <v>78278.52</v>
       </c>
       <c r="S35" s="1" t="inlineStr"/>
     </row>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1.07428</v>
+        <v>1.07431</v>
       </c>
       <c r="O36" s="1" t="inlineStr"/>
       <c r="P36" t="n">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>101219.73588</v>
+        <v>101222.56</v>
       </c>
       <c r="S36" s="1" t="inlineStr"/>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="D37" t="n">
         <v>3.399999999999636</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1.07428</v>
+        <v>1.07431</v>
       </c>
       <c r="O37" s="1" t="inlineStr"/>
       <c r="P37" t="n">
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45749.28808</v>
+        <v>45739.82</v>
       </c>
       <c r="S37" s="1" t="inlineStr"/>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>15386.3</v>
+        <v>15383.6</v>
       </c>
       <c r="D38" t="n">
         <v>3</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>153833</v>
+        <v>153806</v>
       </c>
       <c r="S38" s="1" t="inlineStr"/>
     </row>
@@ -2664,16 +2664,16 @@
       </c>
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>4479.7</v>
+        <v>4479.6</v>
       </c>
       <c r="D40" t="n">
-        <v>2.899999999999636</v>
+        <v>2.800000000000182</v>
       </c>
       <c r="E40" t="n">
-        <v>28.99999999999636</v>
+        <v>28.00000000000182</v>
       </c>
       <c r="F40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G40" t="n">
         <v>10</v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>15816.6</v>
+        <v>15813.6</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>1.07428</v>
+        <v>1.07431</v>
       </c>
       <c r="O41" s="1" t="inlineStr"/>
       <c r="P41" t="n">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>169893.08488</v>
+        <v>169865.6</v>
       </c>
       <c r="S41" s="1" t="inlineStr"/>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>90.55</v>
+        <v>90.47</v>
       </c>
       <c r="D43" t="n">
         <v>0.07999999999999829</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90470</v>
+        <v>90390</v>
       </c>
       <c r="S43" s="1" t="inlineStr"/>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>87.03</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="D44" t="n">
         <v>0.07000000000000739</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>86960</v>
+        <v>86940</v>
       </c>
       <c r="S44" s="1" t="inlineStr"/>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>2.833</v>
+        <v>2.831</v>
       </c>
       <c r="D45" t="n">
         <v>0.01000000000000023</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>28230</v>
+        <v>28210</v>
       </c>
       <c r="S45" s="1" t="inlineStr"/>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>23.028</v>
+        <v>23.025</v>
       </c>
       <c r="D47" t="n">
         <v>0.01999999999999957</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>115040</v>
+        <v>115025</v>
       </c>
       <c r="S47" s="1" t="inlineStr"/>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1923.35</v>
+        <v>1923.1</v>
       </c>
       <c r="D48" t="n">
         <v>0.3099999999999454</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>192304</v>
+        <v>192279</v>
       </c>
       <c r="S48" s="1" t="inlineStr"/>
     </row>
@@ -3065,16 +3065,16 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>1790.69</v>
+        <v>1790.46</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8099999999999454</v>
+        <v>0.8500000000001364</v>
       </c>
       <c r="E49" t="n">
-        <v>80.99999999999454</v>
+        <v>85.00000000001364</v>
       </c>
       <c r="F49" t="n">
-        <v>87.02</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="G49" t="n">
         <v>100</v>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>1.07428</v>
+        <v>1.07431</v>
       </c>
       <c r="O49" s="1" t="inlineStr"/>
       <c r="P49" t="n">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>192283.22864</v>
+        <v>192259.59</v>
       </c>
       <c r="S49" s="1" t="inlineStr"/>
     </row>
